--- a/misc/rmse_test_7features_summary.xlsx
+++ b/misc/rmse_test_7features_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Liu\Documents\Project\SPEGCS ML Challenge\project-gcs-datathon2021\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8966292C-3B07-4A5A-86C8-FAA989AD0E04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC34145-29C5-4C52-8AF4-38A97EC91F34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="3810" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="125">
   <si>
     <t>las_name</t>
   </si>
@@ -395,10 +395,19 @@
     <t>models</t>
   </si>
   <si>
-    <t>runs</t>
-  </si>
-  <si>
     <t>min per model</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>seconds/iter</t>
+  </si>
+  <si>
+    <t>iterations</t>
   </si>
 </sst>
 </file>
@@ -5877,10 +5886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5892,17 +5901,23 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J1">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J2">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>111</v>
       </c>
@@ -5931,16 +5946,13 @@
         <v>9.0212063689644175</v>
       </c>
       <c r="M3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -5969,18 +5981,13 @@
         <v>118</v>
       </c>
       <c r="M4">
-        <f>150*6/60</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>121</v>
-      </c>
-      <c r="O4">
-        <f>O3/M3*M4</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -6017,18 +6024,14 @@
         <v>8.7726298155350992</v>
       </c>
       <c r="M5">
-        <f>9</f>
-        <v>9</v>
+        <f>M3*M2*M4/60</f>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>119</v>
-      </c>
-      <c r="O5">
-        <f>9</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6065,15 +6068,14 @@
         <v>7.5778669034973296</v>
       </c>
       <c r="M6">
-        <f>M5*M4/60</f>
-        <v>2.25</v>
-      </c>
-      <c r="O6">
-        <f>O5*O4/60</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6109,8 +6111,15 @@
         <f>AVERAGE($J$5:J7)</f>
         <v>7.33421475884467</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f>M6*M5/60</f>
+        <v>3.75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6147,7 +6156,7 @@
         <v>7.8054265871195376</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6184,7 +6193,7 @@
         <v>8.500805968883471</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6221,7 +6230,7 @@
         <v>7.9974777696287633</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -6258,7 +6267,7 @@
         <v>9.168286162426611</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -6295,7 +6304,7 @@
         <v>9.4384488886452473</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -6332,7 +6341,7 @@
         <v>9.6800680726506876</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6369,7 +6378,7 @@
         <v>9.9587300949493578</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -6406,7 +6415,7 @@
         <v>9.5669244431066982</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
